--- a/受控文档/用户优先级/PRD2018-G17-开发人员0.0.1.xlsx
+++ b/受控文档/用户优先级/PRD2018-G17-开发人员0.0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schoolwork\需求分析\受控文档\用户优先级\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A74DE2-0EDE-49AC-B475-5C6C03A7FC5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040A46F-9CC5-42BD-9AC4-FE48392CF3C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22940" windowHeight="9920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,15 +1916,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1933,43 +1924,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,13 +1952,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,7 +2012,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,9 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2017,60 +2036,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,657 +2356,617 @@
   <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="39" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="39" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="39">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="30">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32">
         <v>1</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="39">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="30">
         <v>2</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32">
         <v>2</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="39">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="30">
         <v>3</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32">
         <v>3</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="39">
-        <v>4</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="30">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41">
-        <v>4</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32">
+        <v>4</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="39">
-        <v>5</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="30">
+        <v>5</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41">
-        <v>5</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32">
+        <v>5</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="39">
-        <v>6</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="30">
+        <v>6</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41">
-        <v>6</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32">
+        <v>6</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="39">
-        <v>7</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="30">
+        <v>7</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41">
-        <v>7</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32">
+        <v>7</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="39">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="30">
         <v>8</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41">
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32">
         <v>8</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="39">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="30">
         <v>9</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32">
         <v>9</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:17" ht="20">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="49">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="20">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="49">
-        <v>4</v>
-      </c>
-      <c r="D22" s="50" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31">
-        <v>5</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="18">
+        <v>5</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="20">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="49">
-        <v>6</v>
-      </c>
-      <c r="D26" s="50" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="12">
+        <v>6</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:Q20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:Q10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:L11"/>
@@ -3021,6 +2981,46 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:Q25"/>
+    <mergeCell ref="D26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -3044,82 +3044,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -3132,10 +3132,10 @@
       <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3"/>
+      <c r="L4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="57"/>
       <c r="N4">
         <v>2</v>
       </c>
@@ -3148,10 +3148,10 @@
       <c r="T4">
         <v>0.5</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="3"/>
+      <c r="W4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="57"/>
       <c r="Y4">
         <v>2</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="AE4">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="3"/>
+      <c r="AH4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="57"/>
       <c r="AJ4">
         <v>2</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
@@ -3312,245 +3312,455 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="L6" s="9" t="s">
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="6" t="s">
         <v>95</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="W6" s="4" t="s">
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="W6" s="52" t="s">
         <v>15</v>
       </c>
       <c r="X6" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="6"/>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="1"/>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
       <c r="AH6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AI6" t="s">
         <v>53</v>
       </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AP6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="4"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="W7" s="4"/>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="W7" s="52"/>
       <c r="X7" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="6"/>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="1"/>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
       <c r="AH7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AI7" t="s">
         <v>55</v>
       </c>
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AP7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="4"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>159</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="6" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="W8" s="4"/>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="W8" s="52"/>
       <c r="X8" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="6"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="1"/>
-      <c r="AH8" s="6"/>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="3"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="4"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10" t="s">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="6" t="s">
         <v>97</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="W9" s="4"/>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="W9" s="52"/>
       <c r="X9" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="6"/>
+      <c r="Y9" s="3"/>
       <c r="Z9" s="1"/>
-      <c r="AH9" s="6"/>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="4"/>
+      <c r="A10" s="52"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10" t="s">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="W10" s="4"/>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="W10" s="52"/>
       <c r="X10" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="6"/>
+      <c r="Y10" s="3"/>
       <c r="Z10" s="1"/>
-      <c r="AH10" s="6"/>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="4"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10" t="s">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="6" t="s">
         <v>99</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="W11" s="4"/>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="W11" s="52"/>
       <c r="X11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="3"/>
       <c r="Z11" s="1"/>
-      <c r="AH11" s="6"/>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="4"/>
+      <c r="A12" s="52"/>
       <c r="B12" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10" t="s">
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="W12" s="4"/>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="W12" s="52"/>
       <c r="X12" t="s">
         <v>19</v>
       </c>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="3"/>
       <c r="Z12" s="1"/>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="4"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10" t="s">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="W13" s="4"/>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="W13" s="52"/>
       <c r="X13" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="6"/>
+      <c r="Y13" s="3"/>
       <c r="Z13" s="1"/>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="4"/>
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10" t="s">
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="6" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="W14" s="4"/>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="W14" s="52"/>
       <c r="X14" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="3"/>
       <c r="Z14" s="1"/>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="4"/>
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="W15" s="4" t="s">
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="W15" s="52" t="s">
         <v>20</v>
       </c>
       <c r="X15" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="1"/>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="7" t="s">
         <v>104</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="W16" s="4"/>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="W16" s="52"/>
       <c r="X16" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="6"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="4" t="s">
+      <c r="AC16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="52" t="s">
         <v>107</v>
       </c>
       <c r="B17" t="s">
@@ -3558,65 +3768,119 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="12" t="s">
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="L17" s="55"/>
+      <c r="M17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="W17" s="4"/>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="W17" s="52"/>
       <c r="X17" t="s">
         <v>22</v>
       </c>
-      <c r="Y17" s="6"/>
+      <c r="Y17" s="3"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="4"/>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="52"/>
       <c r="B18" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="L18" s="14" t="s">
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="W18" s="4"/>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="W18" s="52"/>
       <c r="X18" t="s">
         <v>62</v>
       </c>
-      <c r="Y18" s="6"/>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="4"/>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="52"/>
       <c r="B19" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="L19" s="15" t="s">
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="L19" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="6" t="s">
         <v>108</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="W19" s="4"/>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="W19" s="52"/>
       <c r="X19" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="3"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="4" t="s">
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B20" t="s">
@@ -3624,305 +3888,575 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="10" t="s">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="6" t="s">
         <v>109</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="W20" s="4"/>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="W20" s="52"/>
       <c r="X20" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="6"/>
+      <c r="Y20" s="3"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="4"/>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="52"/>
       <c r="B21" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="10" t="s">
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="6" t="s">
         <v>110</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="W21" s="4"/>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="W21" s="52"/>
       <c r="X21" t="s">
         <v>65</v>
       </c>
-      <c r="Y21" s="6"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="4"/>
+      <c r="AC21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="52"/>
       <c r="B22" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="L22" s="15" t="s">
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="6" t="s">
         <v>112</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="W22" s="5" t="s">
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="W22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="X22" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="6"/>
+      <c r="Y22" s="3"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="4"/>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AE22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="52"/>
       <c r="B23" t="s">
         <v>118</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="10" t="s">
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="M23" s="6" t="s">
         <v>113</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="W23" s="5"/>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="W23" s="46"/>
       <c r="X23" t="s">
         <v>24</v>
       </c>
-      <c r="Y23" s="6"/>
+      <c r="Y23" s="3"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="4"/>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AE23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="52"/>
       <c r="B24" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="10" t="s">
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="6" t="s">
         <v>114</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="W24" s="5"/>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="W24" s="46"/>
       <c r="X24" t="s">
         <v>67</v>
       </c>
-      <c r="Y24" s="6"/>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="4"/>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="52"/>
       <c r="B25" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="10" t="s">
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="W25" s="5"/>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="W25" s="46"/>
       <c r="X25" t="s">
         <v>25</v>
       </c>
-      <c r="Y25" s="6"/>
+      <c r="Y25" s="3"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="4"/>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="52"/>
       <c r="B26" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="10" t="s">
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="6" t="s">
         <v>116</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="W26" s="5"/>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="W26" s="46"/>
       <c r="X26" t="s">
         <v>26</v>
       </c>
-      <c r="Y26" s="6"/>
+      <c r="Y26" s="3"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="4"/>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="52"/>
       <c r="B27" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="10" t="s">
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="6" t="s">
         <v>117</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="W27" s="5"/>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="W27" s="46"/>
       <c r="X27" t="s">
         <v>68</v>
       </c>
-      <c r="Y27" s="6"/>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="4"/>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AE27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="52"/>
       <c r="B28" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="10" t="s">
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="6" t="s">
         <v>118</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="W28" s="5"/>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="W28" s="46"/>
       <c r="X28" t="s">
         <v>27</v>
       </c>
-      <c r="Y28" s="6"/>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="4"/>
+      <c r="AC28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="52"/>
       <c r="B29" t="s">
         <v>162</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="10" t="s">
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="L29" s="47"/>
+      <c r="M29" s="6" t="s">
         <v>119</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="W29" s="5"/>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="W29" s="46"/>
       <c r="X29" t="s">
         <v>28</v>
       </c>
-      <c r="Y29" s="6"/>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="4"/>
+      <c r="AC29">
+        <v>6</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="52"/>
       <c r="B30" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="10" t="s">
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="6" t="s">
         <v>120</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="W30" s="5"/>
+      <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="W30" s="46"/>
       <c r="X30" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="6"/>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="4"/>
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="52"/>
       <c r="B31" t="s">
         <v>164</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="10" t="s">
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="6" t="s">
         <v>121</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="W31" s="5"/>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="W31" s="46"/>
       <c r="X31" t="s">
         <v>29</v>
       </c>
-      <c r="Y31" s="6"/>
+      <c r="Y31" s="3"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="4"/>
+      <c r="AC31">
+        <v>8</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="52"/>
       <c r="B32" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="10" t="s">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="L32" s="47"/>
+      <c r="M32" s="6" t="s">
         <v>122</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="W32" s="5"/>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="W32" s="46"/>
       <c r="X32" t="s">
         <v>30</v>
       </c>
-      <c r="Y32" s="6"/>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="4"/>
+      <c r="AC32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="52"/>
       <c r="B33" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="10" t="s">
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="L33" s="47"/>
+      <c r="M33" s="6" t="s">
         <v>123</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="W33" s="5"/>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="W33" s="46"/>
       <c r="X33" t="s">
         <v>31</v>
       </c>
-      <c r="Y33" s="6"/>
+      <c r="Y33" s="3"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="4"/>
+      <c r="AC33">
+        <v>7</v>
+      </c>
+      <c r="AE33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="52"/>
       <c r="B34" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="10" t="s">
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="L34" s="47"/>
+      <c r="M34" s="6" t="s">
         <v>124</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="W34" s="5"/>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="W34" s="46"/>
       <c r="X34" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="6"/>
+      <c r="Y34" s="3"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="4" t="s">
+      <c r="AC34">
+        <v>9</v>
+      </c>
+      <c r="AE34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B35" t="s">
@@ -3930,143 +4464,269 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="10" t="s">
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="47"/>
+      <c r="M35" s="6" t="s">
         <v>125</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="W35" s="5"/>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>7</v>
+      </c>
+      <c r="W35" s="46"/>
       <c r="X35" t="s">
         <v>33</v>
       </c>
-      <c r="Y35" s="6"/>
+      <c r="Y35" s="3"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="4"/>
+      <c r="AC35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="52"/>
       <c r="B36" t="s">
         <v>165</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="10" t="s">
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="6" t="s">
         <v>126</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="W36" s="5"/>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="W36" s="46"/>
       <c r="X36" t="s">
         <v>70</v>
       </c>
-      <c r="Y36" s="6"/>
+      <c r="Y36" s="3"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="4"/>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AE36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="52"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="10" t="s">
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="L37" s="47"/>
+      <c r="M37" s="6" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="W37" s="5" t="s">
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="W37" s="46" t="s">
         <v>34</v>
       </c>
       <c r="X37" t="s">
         <v>35</v>
       </c>
-      <c r="Y37" s="6"/>
+      <c r="Y37" s="3"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="4"/>
+      <c r="AC37">
+        <v>7</v>
+      </c>
+      <c r="AE37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="52"/>
       <c r="B38" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="10" t="s">
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="L38" s="47"/>
+      <c r="M38" s="6" t="s">
         <v>128</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="W38" s="5"/>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="W38" s="46"/>
       <c r="X38" t="s">
         <v>36</v>
       </c>
-      <c r="Y38" s="6"/>
+      <c r="Y38" s="3"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="4"/>
+      <c r="AC38">
+        <v>6</v>
+      </c>
+      <c r="AE38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="52"/>
       <c r="B39" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="10" t="s">
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="L39" s="47"/>
+      <c r="M39" s="6" t="s">
         <v>129</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="W39" s="5"/>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="W39" s="46"/>
       <c r="X39" t="s">
         <v>37</v>
       </c>
-      <c r="Y39" s="6"/>
+      <c r="Y39" s="3"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="4"/>
+      <c r="AC39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="52"/>
       <c r="B40" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="10" t="s">
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="L40" s="47"/>
+      <c r="M40" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="W40" s="5"/>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="W40" s="46"/>
       <c r="X40" t="s">
         <v>38</v>
       </c>
-      <c r="Y40" s="6"/>
+      <c r="Y40" s="3"/>
       <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="4"/>
+      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AE40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="52"/>
       <c r="B41" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="10" t="s">
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="L41" s="47"/>
+      <c r="M41" s="6" t="s">
         <v>131</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="W41" s="5"/>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="W41" s="46"/>
       <c r="X41" t="s">
         <v>39</v>
       </c>
-      <c r="Y41" s="6"/>
+      <c r="Y41" s="3"/>
       <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="5" t="s">
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="46" t="s">
         <v>169</v>
       </c>
       <c r="B42" t="s">
@@ -4074,231 +4734,429 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="L42" s="15" t="s">
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="6" t="s">
         <v>133</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="W42" s="5" t="s">
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>8</v>
+      </c>
+      <c r="W42" s="46" t="s">
         <v>71</v>
       </c>
       <c r="X42" t="s">
         <v>40</v>
       </c>
-      <c r="Y42" s="6"/>
+      <c r="Y42" s="3"/>
       <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" ht="16" customHeight="1">
-      <c r="A43" s="5"/>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AE42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="16" customHeight="1">
+      <c r="A43" s="46"/>
       <c r="B43" t="s">
         <v>171</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="10" t="s">
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="L43" s="47"/>
+      <c r="M43" s="6" t="s">
         <v>134</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="W43" s="5"/>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="W43" s="46"/>
       <c r="X43" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="6"/>
+      <c r="Y43" s="3"/>
       <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="5"/>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AE43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="46"/>
       <c r="B44" t="s">
         <v>172</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="10" t="s">
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="L44" s="47"/>
+      <c r="M44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="W44" s="5"/>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+      <c r="W44" s="46"/>
       <c r="X44" t="s">
         <v>43</v>
       </c>
-      <c r="Y44" s="6"/>
+      <c r="Y44" s="3"/>
       <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="5"/>
+      <c r="AC44">
+        <v>5</v>
+      </c>
+      <c r="AE44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="46"/>
       <c r="B45" t="s">
         <v>173</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="10" t="s">
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="47"/>
+      <c r="M45" s="6" t="s">
         <v>136</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="W45" s="5"/>
+      <c r="R45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>7</v>
+      </c>
+      <c r="W45" s="46"/>
       <c r="X45" t="s">
         <v>36</v>
       </c>
-      <c r="Y45" s="6"/>
+      <c r="Y45" s="3"/>
       <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="5"/>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AE45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="46"/>
       <c r="B46" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="10" t="s">
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="6" t="s">
         <v>137</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="W46" s="5"/>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="W46" s="46"/>
       <c r="X46" t="s">
         <v>44</v>
       </c>
-      <c r="Y46" s="6"/>
+      <c r="Y46" s="3"/>
       <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="5"/>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AE46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="46"/>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="L47" s="16" t="s">
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="L47" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="6" t="s">
         <v>139</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="W47" s="5"/>
+      <c r="R47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="W47" s="46"/>
       <c r="X47" t="s">
         <v>72</v>
       </c>
-      <c r="Y47" s="6"/>
+      <c r="Y47" s="3"/>
       <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" ht="16" customHeight="1">
-      <c r="A48" s="5"/>
+      <c r="AC47">
+        <v>2</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="16" customHeight="1">
+      <c r="A48" s="46"/>
       <c r="B48" t="s">
         <v>175</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="10" t="s">
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="L48" s="56"/>
+      <c r="M48" s="6" t="s">
         <v>140</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="W48" s="5"/>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="W48" s="46"/>
       <c r="X48" t="s">
         <v>73</v>
       </c>
-      <c r="Y48" s="6"/>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="5"/>
+      <c r="AC48">
+        <v>5</v>
+      </c>
+      <c r="AE48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="46"/>
       <c r="B49" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="10" t="s">
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="L49" s="56"/>
+      <c r="M49" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="W49" s="5"/>
+      <c r="R49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="W49" s="46"/>
       <c r="X49" t="s">
         <v>74</v>
       </c>
-      <c r="Y49" s="6"/>
+      <c r="Y49" s="3"/>
       <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" ht="16" customHeight="1">
-      <c r="A50" s="5"/>
+      <c r="AC49">
+        <v>6</v>
+      </c>
+      <c r="AE49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="16" customHeight="1">
+      <c r="A50" s="46"/>
       <c r="B50" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="10" t="s">
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="L50" s="56"/>
+      <c r="M50" s="6" t="s">
         <v>116</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="W50" s="5" t="s">
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="W50" s="46" t="s">
         <v>75</v>
       </c>
       <c r="X50" t="s">
         <v>76</v>
       </c>
-      <c r="Y50" s="6"/>
+      <c r="Y50" s="3"/>
       <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="5"/>
+      <c r="AC50">
+        <v>6</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="46"/>
       <c r="B51" t="s">
         <v>177</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="L51" s="17" t="s">
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="L51" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="M51" s="18" t="s">
+      <c r="M51" s="9" t="s">
         <v>143</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="W51" s="5"/>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="W51" s="46"/>
       <c r="X51" t="s">
         <v>77</v>
       </c>
-      <c r="Y51" s="6"/>
+      <c r="Y51" s="3"/>
       <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="5"/>
+      <c r="AC51">
+        <v>7</v>
+      </c>
+      <c r="AE51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="46"/>
       <c r="B52" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="18" t="s">
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="L52" s="48"/>
+      <c r="M52" s="9" t="s">
         <v>144</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="W52" s="5"/>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="W52" s="46"/>
       <c r="X52" t="s">
         <v>78</v>
       </c>
-      <c r="Y52" s="6"/>
+      <c r="Y52" s="3"/>
       <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="4" t="s">
+      <c r="AC52">
+        <v>5</v>
+      </c>
+      <c r="AE52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="52" t="s">
         <v>179</v>
       </c>
       <c r="B53" t="s">
@@ -4306,149 +5164,275 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="18" t="s">
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="L53" s="48"/>
+      <c r="M53" s="9" t="s">
         <v>145</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="W53" s="4" t="s">
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="W53" s="52" t="s">
         <v>79</v>
       </c>
       <c r="X53" t="s">
         <v>80</v>
       </c>
-      <c r="Y53" s="6"/>
+      <c r="Y53" s="3"/>
       <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="4"/>
+      <c r="AC53">
+        <v>4</v>
+      </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="52"/>
       <c r="B54" t="s">
         <v>181</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="18" t="s">
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="L54" s="48"/>
+      <c r="M54" s="9" t="s">
         <v>146</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="W54" s="4"/>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="W54" s="52"/>
       <c r="X54" t="s">
         <v>81</v>
       </c>
-      <c r="Y54" s="6"/>
+      <c r="Y54" s="3"/>
       <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" ht="16" customHeight="1">
-      <c r="A55" s="4"/>
+      <c r="AC54">
+        <v>5</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="16" customHeight="1">
+      <c r="A55" s="52"/>
       <c r="B55" t="s">
         <v>182</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="18" t="s">
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="L55" s="48"/>
+      <c r="M55" s="9" t="s">
         <v>147</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="W55" s="4"/>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="W55" s="52"/>
       <c r="X55" t="s">
         <v>82</v>
       </c>
-      <c r="Y55" s="6"/>
+      <c r="Y55" s="3"/>
       <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="4"/>
+      <c r="AC55">
+        <v>4</v>
+      </c>
+      <c r="AE55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="52"/>
       <c r="B56" t="s">
         <v>183</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="18" t="s">
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="L56" s="48"/>
+      <c r="M56" s="9" t="s">
         <v>148</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="W56" s="5" t="s">
+      <c r="R56">
+        <v>7</v>
+      </c>
+      <c r="T56">
+        <v>6</v>
+      </c>
+      <c r="W56" s="46" t="s">
         <v>83</v>
       </c>
       <c r="X56" t="s">
         <v>84</v>
       </c>
-      <c r="Y56" s="6"/>
+      <c r="Y56" s="3"/>
       <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="4"/>
+      <c r="AC56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="52"/>
       <c r="B57" t="s">
         <v>184</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="18" t="s">
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="L57" s="48"/>
+      <c r="M57" s="9" t="s">
         <v>149</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="W57" s="5"/>
+      <c r="R57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>8</v>
+      </c>
+      <c r="W57" s="46"/>
       <c r="X57" t="s">
         <v>85</v>
       </c>
-      <c r="Y57" s="6"/>
+      <c r="Y57" s="3"/>
       <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="4"/>
+      <c r="AC57">
+        <v>3</v>
+      </c>
+      <c r="AE57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="52"/>
       <c r="B58" t="s">
         <v>185</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="L58" s="19" t="s">
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="L58" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="9" t="s">
         <v>150</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="W58" s="5"/>
+      <c r="R58">
+        <v>9</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="W58" s="46"/>
       <c r="X58" t="s">
         <v>86</v>
       </c>
-      <c r="Y58" s="6"/>
+      <c r="Y58" s="3"/>
       <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="4"/>
+      <c r="AC58">
+        <v>4</v>
+      </c>
+      <c r="AE58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="52"/>
       <c r="B59" t="s">
         <v>186</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="18" t="s">
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="L59" s="50"/>
+      <c r="M59" s="9" t="s">
         <v>151</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="W59" s="5" t="s">
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="T59">
+        <v>6</v>
+      </c>
+      <c r="W59" s="46" t="s">
         <v>87</v>
       </c>
       <c r="X59" t="s">
         <v>88</v>
       </c>
-      <c r="Y59" s="6"/>
+      <c r="Y59" s="3"/>
       <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="5" t="s">
+      <c r="AC59">
+        <v>4</v>
+      </c>
+      <c r="AE59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="46" t="s">
         <v>187</v>
       </c>
       <c r="B60" t="s">
@@ -4456,61 +5440,115 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="18" t="s">
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="L60" s="50"/>
+      <c r="M60" s="9" t="s">
         <v>152</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="W60" s="5"/>
+      <c r="R60">
+        <v>9</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="W60" s="46"/>
       <c r="X60" t="s">
         <v>89</v>
       </c>
-      <c r="Y60" s="6"/>
+      <c r="Y60" s="3"/>
       <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="5"/>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AE60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="46"/>
       <c r="B61" t="s">
         <v>189</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="18" t="s">
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="L61" s="50"/>
+      <c r="M61" s="9" t="s">
         <v>45</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="W61" s="5"/>
+      <c r="R61">
+        <v>8</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="W61" s="46"/>
       <c r="X61" t="s">
         <v>90</v>
       </c>
-      <c r="Y61" s="6"/>
+      <c r="Y61" s="3"/>
       <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="5"/>
+      <c r="AC61">
+        <v>3</v>
+      </c>
+      <c r="AE61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="46"/>
       <c r="B62" t="s">
         <v>190</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="18" t="s">
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>7</v>
+      </c>
+      <c r="L62" s="50"/>
+      <c r="M62" s="9" t="s">
         <v>46</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="W62" s="5"/>
+      <c r="R62">
+        <v>9</v>
+      </c>
+      <c r="T62">
+        <v>7</v>
+      </c>
+      <c r="W62" s="46"/>
       <c r="X62" t="s">
         <v>91</v>
       </c>
-      <c r="Y62" s="6"/>
+      <c r="Y62" s="3"/>
       <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" ht="16" customHeight="1">
-      <c r="A63" s="5" t="s">
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AE62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="16" customHeight="1">
+      <c r="A63" s="46" t="s">
         <v>191</v>
       </c>
       <c r="B63" t="s">
@@ -4518,155 +5556,263 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="18" t="s">
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="L63" s="51"/>
+      <c r="M63" s="9" t="s">
         <v>153</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="W63" s="5" t="s">
+      <c r="R63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="W63" s="46" t="s">
         <v>92</v>
       </c>
       <c r="X63" t="s">
         <v>93</v>
       </c>
-      <c r="Y63" s="6"/>
+      <c r="Y63" s="3"/>
       <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="5"/>
+      <c r="AC63">
+        <v>7</v>
+      </c>
+      <c r="AE63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="46"/>
       <c r="B64" t="s">
         <v>193</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="L64" s="17" t="s">
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="L64" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="M64" s="18" t="s">
+      <c r="M64" s="9" t="s">
         <v>47</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="W64" s="5"/>
+      <c r="R64">
+        <v>9</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+      <c r="W64" s="46"/>
       <c r="X64" t="s">
         <v>94</v>
       </c>
-      <c r="Y64" s="6"/>
+      <c r="Y64" s="3"/>
       <c r="Z64" s="1"/>
+      <c r="AC64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="5"/>
+      <c r="A65" s="46"/>
       <c r="B65" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="18" t="s">
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="L65" s="48"/>
+      <c r="M65" s="9" t="s">
         <v>155</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
+      <c r="R65">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>6</v>
+      </c>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="16" customHeight="1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="46"/>
       <c r="B66" t="s">
         <v>195</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="18" t="s">
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="L66" s="48"/>
+      <c r="M66" s="9" t="s">
         <v>156</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
+      <c r="R66">
+        <v>7</v>
+      </c>
+      <c r="T66">
+        <v>7</v>
+      </c>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="16" customHeight="1">
-      <c r="A67" s="5"/>
+      <c r="A67" s="46"/>
       <c r="B67" t="s">
         <v>196</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="L67" s="17" t="s">
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="L67" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="M67" s="18" t="s">
+      <c r="M67" s="9" t="s">
         <v>158</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>9</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="16" customHeight="1">
-      <c r="A68" s="5"/>
+      <c r="A68" s="46"/>
       <c r="B68" t="s">
         <v>197</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="18" t="s">
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="L68" s="48"/>
+      <c r="M68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>8</v>
+      </c>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="15" customHeight="1">
-      <c r="A69" s="5"/>
+      <c r="A69" s="46"/>
       <c r="B69" t="s">
         <v>198</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="18" t="s">
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="L69" s="48"/>
+      <c r="M69" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
+      <c r="R69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>7</v>
+      </c>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15" customHeight="1">
-      <c r="A70" s="5"/>
+      <c r="A70" s="46"/>
       <c r="B70" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="18" t="s">
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="L70" s="48"/>
+      <c r="M70" s="9" t="s">
         <v>49</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="15" customHeight="1">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="46" t="s">
         <v>200</v>
       </c>
       <c r="B71" t="s">
@@ -4674,218 +5820,276 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="18" t="s">
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="L71" s="48"/>
+      <c r="M71" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>5</v>
+      </c>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="15" customHeight="1">
-      <c r="A72" s="5"/>
+      <c r="A72" s="46"/>
       <c r="B72" t="s">
         <v>198</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="L72" s="17" t="s">
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="L72" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M72" s="18" t="s">
+      <c r="M72" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15" customHeight="1">
-      <c r="A73" s="5"/>
+      <c r="A73" s="46"/>
       <c r="B73" t="s">
         <v>192</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="18" t="s">
+      <c r="G73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="L73" s="48"/>
+      <c r="M73" s="9" t="s">
         <v>49</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
+      <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15" customHeight="1">
-      <c r="A74" s="5"/>
+      <c r="A74" s="46"/>
       <c r="B74" t="s">
         <v>195</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="18" t="s">
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="L74" s="48"/>
+      <c r="M74" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15" customHeight="1">
-      <c r="A75" s="5"/>
+      <c r="A75" s="46"/>
       <c r="B75" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="18" t="s">
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="L75" s="48"/>
+      <c r="M75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="7"/>
+      <c r="A76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="18" t="s">
+      <c r="L76" s="48"/>
+      <c r="M76" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="7"/>
+      <c r="A77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="L77" s="8"/>
+      <c r="L77" s="5"/>
       <c r="M77" s="2"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="7"/>
+      <c r="A78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="L78" s="8"/>
+      <c r="L78" s="5"/>
       <c r="M78" s="2"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="7"/>
+      <c r="A79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="L79" s="8"/>
+      <c r="L79" s="5"/>
       <c r="M79" s="2"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="7"/>
+      <c r="A80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="2"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="7"/>
+      <c r="A81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="L81" s="8"/>
+      <c r="L81" s="5"/>
       <c r="M81" s="2"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="7"/>
+      <c r="A82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="L82" s="8"/>
+      <c r="L82" s="5"/>
       <c r="M82" s="2"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="7"/>
+      <c r="A83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="5"/>
       <c r="M83" s="2"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="7"/>
+      <c r="A84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="L84" s="8"/>
+      <c r="L84" s="5"/>
       <c r="M84" s="2"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="L85" s="8"/>
+      <c r="L85" s="5"/>
       <c r="M85" s="2"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="L86" s="8"/>
+      <c r="L86" s="5"/>
       <c r="M86" s="2"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="L87" s="8"/>
+      <c r="L87" s="5"/>
       <c r="M87" s="2"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L22:L41"/>
-    <mergeCell ref="L42:L46"/>
-    <mergeCell ref="L51:L57"/>
-    <mergeCell ref="L58:L63"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="W6:W14"/>
-    <mergeCell ref="W15:W21"/>
-    <mergeCell ref="W22:W36"/>
-    <mergeCell ref="W37:W41"/>
-    <mergeCell ref="W42:W49"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="W59:W62"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="AH3:AR3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:V3"/>
     <mergeCell ref="L6:L17"/>
     <mergeCell ref="L47:L50"/>
     <mergeCell ref="L67:L71"/>
@@ -4899,14 +6103,22 @@
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="A20:A34"/>
-    <mergeCell ref="W3:AG3"/>
-    <mergeCell ref="AH3:AR3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:V3"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="W15:W21"/>
+    <mergeCell ref="W22:W36"/>
+    <mergeCell ref="W37:W41"/>
+    <mergeCell ref="W42:W49"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L22:L41"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="L51:L57"/>
+    <mergeCell ref="L58:L63"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="W59:W62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
